--- a/data/trans_camb/P2405-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2405-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2405-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2405-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -606,27 +606,27 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,91; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,61; 0,0</t>
         </is>
       </c>
     </row>
@@ -682,27 +682,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 0,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,68; 3,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 0,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 1,9</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>808,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>172,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>987,21%</t>
         </is>
       </c>
     </row>
@@ -918,27 +918,27 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
     </row>
@@ -956,12 +956,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,63</t>
         </is>
       </c>
     </row>
@@ -994,27 +994,27 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,45</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,43; 3,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 0,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,43; 0,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 0,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 1,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 0,16</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>320,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-54,61%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,91%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,67%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,2%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,11; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,43; 550,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-1,42</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,87</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,92</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,83; 0,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,85; -0,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,18; 0,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; -0,23</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-76,31%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,44%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1386,27 +1386,27 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,36; 3,39</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,65</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 1,77</t>
         </is>
       </c>
     </row>
@@ -1462,27 +1462,27 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
     </row>
@@ -1575,12 +1575,12 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 1,4</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 1,97</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1590,17 +1590,17 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,73</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 0,65</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,05; 1,1</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
+          <t>205,44%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>323,68%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>204,28%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>376,43%</t>
         </is>
       </c>
     </row>
@@ -1693,32 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,0</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 1,18</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 0,31</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 0,0</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 0,0</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 0,44</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 0,08</t>
         </is>
       </c>
     </row>
@@ -1769,32 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,71%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,17%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,34%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,76%</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,67; 573,74</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,37; 273,61</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 220,23</t>
         </is>
       </c>
     </row>
@@ -1849,32 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,03; 0,89</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 0,68</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 0,11</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 0,15</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 0,42</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,09; 0,35</t>
         </is>
       </c>
     </row>
@@ -1925,32 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,62%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,69%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,99%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,05%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,51%</t>
         </is>
       </c>
     </row>
@@ -1963,12 +1963,12 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,23; 300,44</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,0; 243,04</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -1978,17 +1978,17 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,07; 351,05</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,62; 211,83</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,1; 168,24</t>
         </is>
       </c>
     </row>
